--- a/biology/Médecine/Kazem_Sami_Kermani/Kazem_Sami_Kermani.xlsx
+++ b/biology/Médecine/Kazem_Sami_Kermani/Kazem_Sami_Kermani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Dr Kazem Sami Kermani était un homme politique iranien[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Dr Kazem Sami Kermani était un homme politique iranien.
 Il fut ministre de la Santé au sein du gouvernement de transition de Mehdi Bazargan et leader du parti politique JAMA, allié du parti Nehzate Azadi (Mouvement pour la Liberté d'Iran), affilié au Front National d'Iran.
 </t>
         </is>
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été auteur de nombreux titres autant politiques que médicaux (psychiatrie et psychologie). 
 Il a été un des candidats à la première élection présidentielle de l'histoire de l'Iran, où il a obtenu 0,63 % des suffrages exprimés. 
 Il a été élu député au parlement de l'après révolution avant de décider de ne plus se représenter aux futures élections compte tenu des pressions subies. 
-Il a écrit une lettre ouverte à l'Ayatollah Rouhollah Khomeini, critiquant la continuation de la guerre Iran-Irak après la reconquête des territoires occupés, dont notamment la libération (en) de Khorramshahr, le 24 mai 1982[2]. 
+Il a écrit une lettre ouverte à l'Ayatollah Rouhollah Khomeini, critiquant la continuation de la guerre Iran-Irak après la reconquête des territoires occupés, dont notamment la libération (en) de Khorramshahr, le 24 mai 1982. 
 Il fut assassiné à son cabinet médical le 23 novembre 1988 dans des circonstances jamais clarifiées.
 </t>
         </is>
